--- a/Project Documentation/Burn_Down.xlsx
+++ b/Project Documentation/Burn_Down.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18814"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC8F0F5-EAB2-4625-BD6B-16E8124D1E1C}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4349FF-78B5-4758-B1B8-FF0E9DECF9FF}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,24 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>2017. 11. 9.</t>
   </si>
   <si>
-    <t>2018. 11. 10.</t>
+    <t>2017. 11. 10.</t>
   </si>
   <si>
-    <t>2019. 11. 15.</t>
+    <t>2017. 11. 15.</t>
   </si>
   <si>
-    <t>2020. 11. 17.</t>
+    <t>2017. 11. 17.</t>
   </si>
   <si>
-    <t>2021. 11. 21.</t>
+    <t>2021. 11. 20.</t>
   </si>
   <si>
-    <t>2022. 11. 22.</t>
+    <t>2017. 11. 21.</t>
+  </si>
+  <si>
+    <t>2017. 11. 22</t>
   </si>
 </sst>
 </file>
@@ -179,52 +182,58 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$1:$A$6</c:f>
+              <c:f>Munka1!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2017. 11. 9.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018. 11. 10.</c:v>
+                  <c:v>2017. 11. 10.</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019. 11. 15.</c:v>
+                  <c:v>2017. 11. 15.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020. 11. 17.</c:v>
+                  <c:v>2017. 11. 17.</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021. 11. 21.</c:v>
+                  <c:v>2021. 11. 20.</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2022. 11. 22.</c:v>
+                  <c:v>2017. 11. 21.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017. 11. 22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$1:$B$6</c:f>
+              <c:f>Munka1!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>40.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.4</c:v>
+                  <c:v>32.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>24.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>16.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8.1666666666666767</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -234,6 +243,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38F0-47F4-9799-87EE33652B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017. 11. 9.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017. 11. 10.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017. 11. 15.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017. 11. 17.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021. 11. 20.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017. 11. 21.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017. 11. 22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$1:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AD1-44B2-9957-BFF63680FE54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,52 +1514,87 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>49</v>
       </c>
+      <c r="C1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>39.200000000000003</v>
+        <f>B1-49/6</f>
+        <v>40.833333333333336</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29.4</v>
+        <f t="shared" ref="B3:B7" si="0">B2-49/6</f>
+        <v>32.666666666666671</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19.600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>24.500000000000007</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.8000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>16.333333333333343</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.1666666666666767</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
